--- a/data/pca/factorExposure/factorExposure_2015-09-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-09-03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.0259165846307442</v>
+        <v>0.0192501123498947</v>
       </c>
       <c r="C2">
-        <v>0.03119472605068065</v>
+        <v>-0.04406888940018254</v>
       </c>
       <c r="D2">
-        <v>-0.1270422500122156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.1365886300090513</v>
+      </c>
+      <c r="E2">
+        <v>-0.01243028908599397</v>
+      </c>
+      <c r="F2">
+        <v>-5.108367236103472e-05</v>
+      </c>
+      <c r="G2">
+        <v>-0.1115573940010971</v>
+      </c>
+      <c r="H2">
+        <v>0.01046847599531029</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.005534125469687587</v>
+        <v>-0.01080822171511376</v>
       </c>
       <c r="C3">
-        <v>0.05817794799752092</v>
+        <v>-0.04120540350444291</v>
       </c>
       <c r="D3">
-        <v>-0.07767578476027885</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.05345600533707452</v>
+      </c>
+      <c r="E3">
+        <v>-0.04457260716028996</v>
+      </c>
+      <c r="F3">
+        <v>-0.007377323400089193</v>
+      </c>
+      <c r="G3">
+        <v>-0.1281809546884623</v>
+      </c>
+      <c r="H3">
+        <v>-0.02855547882105262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04940500697282604</v>
+        <v>0.03988389464641805</v>
       </c>
       <c r="C4">
-        <v>0.0672422565799994</v>
+        <v>-0.08433006101691155</v>
       </c>
       <c r="D4">
-        <v>-0.1364803249823516</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1523560751817381</v>
+      </c>
+      <c r="E4">
+        <v>-0.02998159909494283</v>
+      </c>
+      <c r="F4">
+        <v>-0.07494745218691116</v>
+      </c>
+      <c r="G4">
+        <v>0.01258702682911949</v>
+      </c>
+      <c r="H4">
+        <v>-0.03934292438593091</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03201132370231299</v>
+        <v>0.03113670965668054</v>
       </c>
       <c r="C6">
-        <v>0.02356490155523177</v>
+        <v>-0.03294953463563173</v>
       </c>
       <c r="D6">
-        <v>-0.15819141544312</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1394108397631585</v>
+      </c>
+      <c r="E6">
+        <v>0.01964617925433193</v>
+      </c>
+      <c r="F6">
+        <v>-0.05883022516947863</v>
+      </c>
+      <c r="G6">
+        <v>-0.05744749391356241</v>
+      </c>
+      <c r="H6">
+        <v>-0.01251346662576568</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01657123491170793</v>
+        <v>0.01155978496547898</v>
       </c>
       <c r="C7">
-        <v>0.03134836720267596</v>
+        <v>-0.038044604034564</v>
       </c>
       <c r="D7">
-        <v>-0.118999370563716</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.09890800749503745</v>
+      </c>
+      <c r="E7">
+        <v>0.03330398004053848</v>
+      </c>
+      <c r="F7">
+        <v>-0.01929397352487902</v>
+      </c>
+      <c r="G7">
+        <v>-0.05832068043323858</v>
+      </c>
+      <c r="H7">
+        <v>-0.04019191332976563</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01098452105264446</v>
+        <v>0.003874202538448025</v>
       </c>
       <c r="C8">
-        <v>0.03519634330341864</v>
+        <v>-0.04040202752419729</v>
       </c>
       <c r="D8">
-        <v>-0.07875035396540458</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.08205538641377147</v>
+      </c>
+      <c r="E8">
+        <v>0.004627094506108119</v>
+      </c>
+      <c r="F8">
+        <v>-0.04964658664434714</v>
+      </c>
+      <c r="G8">
+        <v>-0.07802028393946728</v>
+      </c>
+      <c r="H8">
+        <v>0.034754012815507</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03803157533839988</v>
+        <v>0.02937153044053687</v>
       </c>
       <c r="C9">
-        <v>0.06025016491079431</v>
+        <v>-0.07262876274087197</v>
       </c>
       <c r="D9">
-        <v>-0.124987424865797</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.127171834040606</v>
+      </c>
+      <c r="E9">
+        <v>-0.01831465450511222</v>
+      </c>
+      <c r="F9">
+        <v>-0.04686184308815727</v>
+      </c>
+      <c r="G9">
+        <v>0.01073126355441779</v>
+      </c>
+      <c r="H9">
+        <v>-0.03905029292171276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1340541241017073</v>
+        <v>0.1878047658986523</v>
       </c>
       <c r="C10">
-        <v>-0.1855728934455671</v>
+        <v>0.1596243481377291</v>
       </c>
       <c r="D10">
-        <v>-0.006347297833868756</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01173879338139</v>
+      </c>
+      <c r="E10">
+        <v>-0.02899746616282718</v>
+      </c>
+      <c r="F10">
+        <v>-0.04540747204903415</v>
+      </c>
+      <c r="G10">
+        <v>0.02585569914291341</v>
+      </c>
+      <c r="H10">
+        <v>0.05598133215894732</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03241337999197288</v>
+        <v>0.02395600734349207</v>
       </c>
       <c r="C11">
-        <v>0.04324449900924699</v>
+        <v>-0.05228737435135486</v>
       </c>
       <c r="D11">
-        <v>-0.05993447051823026</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.05169327008539095</v>
+      </c>
+      <c r="E11">
+        <v>0.02222386113405087</v>
+      </c>
+      <c r="F11">
+        <v>0.0126647442519635</v>
+      </c>
+      <c r="G11">
+        <v>-0.02585227946128726</v>
+      </c>
+      <c r="H11">
+        <v>-0.03888456718769539</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03801371279671119</v>
+        <v>0.0269007233964457</v>
       </c>
       <c r="C12">
-        <v>0.04635874912526032</v>
+        <v>-0.05468039248225647</v>
       </c>
       <c r="D12">
-        <v>-0.07194679073173303</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05362185677612559</v>
+      </c>
+      <c r="E12">
+        <v>0.01824368586135828</v>
+      </c>
+      <c r="F12">
+        <v>0.01911109673454564</v>
+      </c>
+      <c r="G12">
+        <v>-0.02714338016259923</v>
+      </c>
+      <c r="H12">
+        <v>-0.0664602646789707</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01018094509962175</v>
+        <v>0.01031760062025451</v>
       </c>
       <c r="C13">
-        <v>0.03664592164745251</v>
+        <v>-0.04572884999919441</v>
       </c>
       <c r="D13">
-        <v>-0.1603083041096287</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.1615599327139125</v>
+      </c>
+      <c r="E13">
+        <v>0.02584342790335084</v>
+      </c>
+      <c r="F13">
+        <v>-0.04656688217075645</v>
+      </c>
+      <c r="G13">
+        <v>-0.06553728490477688</v>
+      </c>
+      <c r="H13">
+        <v>-0.02397116866837145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.003033799900398321</v>
+        <v>0.003267247023422595</v>
       </c>
       <c r="C14">
-        <v>0.02535826353694785</v>
+        <v>-0.02866152288287758</v>
       </c>
       <c r="D14">
-        <v>-0.1141375444714297</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.1083255928572977</v>
+      </c>
+      <c r="E14">
+        <v>0.01181740854665426</v>
+      </c>
+      <c r="F14">
+        <v>-0.01900600138049065</v>
+      </c>
+      <c r="G14">
+        <v>-0.0840061339809354</v>
+      </c>
+      <c r="H14">
+        <v>-0.06640719309584775</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.002826805720004147</v>
+        <v>0.0009071039608037871</v>
       </c>
       <c r="C15">
-        <v>0.005985384513785024</v>
+        <v>-0.01482729646425201</v>
       </c>
       <c r="D15">
-        <v>-0.01247593287110102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04308973381268083</v>
+      </c>
+      <c r="E15">
+        <v>0.000684055959622843</v>
+      </c>
+      <c r="F15">
+        <v>-0.002646467552116963</v>
+      </c>
+      <c r="G15">
+        <v>-0.01882980066988636</v>
+      </c>
+      <c r="H15">
+        <v>-0.0005200304708748262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02893196822671355</v>
+        <v>0.02161458130602923</v>
       </c>
       <c r="C16">
-        <v>0.04509275777603365</v>
+        <v>-0.05107664365649595</v>
       </c>
       <c r="D16">
-        <v>-0.07587191681759721</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06017791114992724</v>
+      </c>
+      <c r="E16">
+        <v>0.01453519539759206</v>
+      </c>
+      <c r="F16">
+        <v>0.001911197804052327</v>
+      </c>
+      <c r="G16">
+        <v>-0.03693839929220925</v>
+      </c>
+      <c r="H16">
+        <v>-0.05972922132331832</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.01056886562463891</v>
+        <v>0.005222589226100996</v>
       </c>
       <c r="C19">
-        <v>0.03170501755129251</v>
+        <v>-0.02784686872305785</v>
       </c>
       <c r="D19">
-        <v>-0.1684982015829994</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1179257432959079</v>
+      </c>
+      <c r="E19">
+        <v>-0.02338915332523896</v>
+      </c>
+      <c r="F19">
+        <v>-0.004958346900278025</v>
+      </c>
+      <c r="G19">
+        <v>-0.05465912394841031</v>
+      </c>
+      <c r="H19">
+        <v>-0.06032852409742519</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01370438902534266</v>
+        <v>0.01196806520460859</v>
       </c>
       <c r="C20">
-        <v>0.03576971931678757</v>
+        <v>-0.04083296053910342</v>
       </c>
       <c r="D20">
-        <v>-0.1076297242028428</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.1094156704807752</v>
+      </c>
+      <c r="E20">
+        <v>-0.01119043248554485</v>
+      </c>
+      <c r="F20">
+        <v>-0.0278218315804674</v>
+      </c>
+      <c r="G20">
+        <v>-0.05256113849378059</v>
+      </c>
+      <c r="H20">
+        <v>-0.04715248902390105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.009576137651506158</v>
+        <v>0.004262094999885209</v>
       </c>
       <c r="C21">
-        <v>0.03742626142424002</v>
+        <v>-0.04454312682275096</v>
       </c>
       <c r="D21">
-        <v>-0.1787583956409196</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.1616508064657675</v>
+      </c>
+      <c r="E21">
+        <v>-0.02891311782518024</v>
+      </c>
+      <c r="F21">
+        <v>-0.06615283347135249</v>
+      </c>
+      <c r="G21">
+        <v>-0.08931145471121563</v>
+      </c>
+      <c r="H21">
+        <v>-0.09429099701976607</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.002108686557809882</v>
+        <v>0.00220969579120569</v>
       </c>
       <c r="C22">
-        <v>0.05019806782278397</v>
+        <v>-0.0587745994841371</v>
       </c>
       <c r="D22">
-        <v>-0.149590779487679</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.212734033578088</v>
+      </c>
+      <c r="E22">
+        <v>0.03807275472025361</v>
+      </c>
+      <c r="F22">
+        <v>-0.03889587119200744</v>
+      </c>
+      <c r="G22">
+        <v>-0.003748123257381396</v>
+      </c>
+      <c r="H22">
+        <v>0.4728435568016281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.002283490166805784</v>
+        <v>0.002685266293040808</v>
       </c>
       <c r="C23">
-        <v>0.05052851198829147</v>
+        <v>-0.05917193815675285</v>
       </c>
       <c r="D23">
-        <v>-0.1491131107529051</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.2129380973018376</v>
+      </c>
+      <c r="E23">
+        <v>0.03567745432103091</v>
+      </c>
+      <c r="F23">
+        <v>-0.03752747904334962</v>
+      </c>
+      <c r="G23">
+        <v>-0.001991476243211214</v>
+      </c>
+      <c r="H23">
+        <v>0.4729557526384909</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03555616390375674</v>
+        <v>0.02389677216167774</v>
       </c>
       <c r="C24">
-        <v>0.05767478112743457</v>
+        <v>-0.06321633867308854</v>
       </c>
       <c r="D24">
-        <v>-0.07416832675417545</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.05908935812557587</v>
+      </c>
+      <c r="E24">
+        <v>0.01538909010343125</v>
+      </c>
+      <c r="F24">
+        <v>-0.001069117647807011</v>
+      </c>
+      <c r="G24">
+        <v>-0.04398959688464524</v>
+      </c>
+      <c r="H24">
+        <v>-0.06485450011463861</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.04049130200807141</v>
+        <v>0.0292021808094321</v>
       </c>
       <c r="C25">
-        <v>0.0520385037863457</v>
+        <v>-0.06099733121247176</v>
       </c>
       <c r="D25">
-        <v>-0.07471871568137414</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.06161518963357721</v>
+      </c>
+      <c r="E25">
+        <v>0.00651669492384982</v>
+      </c>
+      <c r="F25">
+        <v>0.006732014680667471</v>
+      </c>
+      <c r="G25">
+        <v>-0.02128860867643274</v>
+      </c>
+      <c r="H25">
+        <v>-0.04483788510666739</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.0127341000484111</v>
+        <v>0.0107205326333844</v>
       </c>
       <c r="C26">
-        <v>0.01606352160395303</v>
+        <v>-0.02436186323939829</v>
       </c>
       <c r="D26">
-        <v>-0.08193408989535335</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.07310816898541017</v>
+      </c>
+      <c r="E26">
+        <v>0.01068809574680539</v>
+      </c>
+      <c r="F26">
+        <v>-0.0227975372747929</v>
+      </c>
+      <c r="G26">
+        <v>-0.04772614158501153</v>
+      </c>
+      <c r="H26">
+        <v>-0.05772816533598809</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1978211743653914</v>
+        <v>0.2669463877392814</v>
       </c>
       <c r="C28">
-        <v>-0.2474679503170424</v>
+        <v>0.2043255037312375</v>
       </c>
       <c r="D28">
-        <v>-0.002642839324040781</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.0008420409728603626</v>
+      </c>
+      <c r="E28">
+        <v>-0.05953432959715225</v>
+      </c>
+      <c r="F28">
+        <v>-0.04976753728918404</v>
+      </c>
+      <c r="G28">
+        <v>0.04387195324282624</v>
+      </c>
+      <c r="H28">
+        <v>0.03698210701352297</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.002535745233481624</v>
+        <v>0.003104091466465107</v>
       </c>
       <c r="C29">
-        <v>0.02415501181777599</v>
+        <v>-0.02810264686598082</v>
       </c>
       <c r="D29">
-        <v>-0.1074013018055137</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.1068539599460764</v>
+      </c>
+      <c r="E29">
+        <v>0.02553919094983456</v>
+      </c>
+      <c r="F29">
+        <v>-0.0337007836683411</v>
+      </c>
+      <c r="G29">
+        <v>-0.07431369377779228</v>
+      </c>
+      <c r="H29">
+        <v>-0.06997081058140617</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.02925790807292099</v>
+        <v>0.02539380301853819</v>
       </c>
       <c r="C30">
-        <v>0.06487043118260435</v>
+        <v>-0.07839743729133339</v>
       </c>
       <c r="D30">
-        <v>-0.1702222108550587</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1686894486158603</v>
+      </c>
+      <c r="E30">
+        <v>0.02711281967254778</v>
+      </c>
+      <c r="F30">
+        <v>-0.0389040461579251</v>
+      </c>
+      <c r="G30">
+        <v>-0.04655747743437793</v>
+      </c>
+      <c r="H30">
+        <v>-0.02052858391945858</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05387627841264774</v>
+        <v>0.03566258219491832</v>
       </c>
       <c r="C31">
-        <v>0.07743425452658149</v>
+        <v>-0.08527676255795381</v>
       </c>
       <c r="D31">
-        <v>-0.06977361040405579</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.0486824550465947</v>
+      </c>
+      <c r="E31">
+        <v>0.003654650818698002</v>
+      </c>
+      <c r="F31">
+        <v>-0.02191138733211974</v>
+      </c>
+      <c r="G31">
+        <v>-0.01982952797922911</v>
+      </c>
+      <c r="H31">
+        <v>-0.02079688323040528</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02592143793326869</v>
+        <v>0.0226611280603061</v>
       </c>
       <c r="C32">
-        <v>0.02763972196296437</v>
+        <v>-0.03428125554369407</v>
       </c>
       <c r="D32">
-        <v>-0.1154218494357546</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.1276905388674628</v>
+      </c>
+      <c r="E32">
+        <v>-0.0100909673430738</v>
+      </c>
+      <c r="F32">
+        <v>-0.04882182611146146</v>
+      </c>
+      <c r="G32">
+        <v>-0.04240546107249697</v>
+      </c>
+      <c r="H32">
+        <v>-0.01056218648487647</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02140229977777483</v>
+        <v>0.01968269084162581</v>
       </c>
       <c r="C33">
-        <v>0.04450840334238371</v>
+        <v>-0.05122645323247481</v>
       </c>
       <c r="D33">
-        <v>-0.1613495046303295</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1422031259324922</v>
+      </c>
+      <c r="E33">
+        <v>0.0005681418119982788</v>
+      </c>
+      <c r="F33">
+        <v>-0.02886898812438602</v>
+      </c>
+      <c r="G33">
+        <v>-0.04309860884844529</v>
+      </c>
+      <c r="H33">
+        <v>-0.04310051781451193</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03403898631546123</v>
+        <v>0.02182945547129523</v>
       </c>
       <c r="C34">
-        <v>0.06301250461405811</v>
+        <v>-0.06542375338512278</v>
       </c>
       <c r="D34">
-        <v>-0.07090998008627097</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.04880225789087094</v>
+      </c>
+      <c r="E34">
+        <v>0.03045403474806686</v>
+      </c>
+      <c r="F34">
+        <v>0.02364781624429998</v>
+      </c>
+      <c r="G34">
+        <v>-0.03852258149292176</v>
+      </c>
+      <c r="H34">
+        <v>-0.05536189145750383</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.001278381438575459</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.002400196576534677</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01125755261672305</v>
+      </c>
+      <c r="E35">
+        <v>0.001172837838775509</v>
+      </c>
+      <c r="F35">
+        <v>0.0007433073619511832</v>
+      </c>
+      <c r="G35">
+        <v>-0.002040907523932237</v>
+      </c>
+      <c r="H35">
+        <v>-0.00358461905679329</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01782733099989403</v>
+        <v>0.01620192646879036</v>
       </c>
       <c r="C36">
-        <v>0.008410204246832552</v>
+        <v>-0.0198281078148964</v>
       </c>
       <c r="D36">
-        <v>-0.1025660446763028</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.08748376702158715</v>
+      </c>
+      <c r="E36">
+        <v>0.00136575000690658</v>
+      </c>
+      <c r="F36">
+        <v>-0.02482927330798732</v>
+      </c>
+      <c r="G36">
+        <v>-0.03166173835586963</v>
+      </c>
+      <c r="H36">
+        <v>-0.05084168140943625</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01850863426788499</v>
+        <v>0.02254601600416798</v>
       </c>
       <c r="C38">
-        <v>0.01617227133789563</v>
+        <v>-0.02090898850621381</v>
       </c>
       <c r="D38">
-        <v>-0.0928173180938577</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.0860765803328665</v>
+      </c>
+      <c r="E38">
+        <v>-0.01591351586147632</v>
+      </c>
+      <c r="F38">
+        <v>0.0218584709133878</v>
+      </c>
+      <c r="G38">
+        <v>-0.03744823406946713</v>
+      </c>
+      <c r="H38">
+        <v>-0.040230479102393</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03674611202890565</v>
+        <v>0.02624396632598111</v>
       </c>
       <c r="C39">
-        <v>0.05893291291072088</v>
+        <v>-0.07431896985148677</v>
       </c>
       <c r="D39">
-        <v>-0.1153406532083398</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1109378507167897</v>
+      </c>
+      <c r="E39">
+        <v>0.03751089948420842</v>
+      </c>
+      <c r="F39">
+        <v>0.006090172902721202</v>
+      </c>
+      <c r="G39">
+        <v>-0.0514614036035763</v>
+      </c>
+      <c r="H39">
+        <v>-0.08276240836728033</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01569381576921253</v>
+        <v>0.009757871939962521</v>
       </c>
       <c r="C40">
-        <v>0.04425302422173048</v>
+        <v>-0.04096859347026065</v>
       </c>
       <c r="D40">
-        <v>-0.1169770308847232</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.1036289172926593</v>
+      </c>
+      <c r="E40">
+        <v>-0.0003206142334117052</v>
+      </c>
+      <c r="F40">
+        <v>-0.03988184545857861</v>
+      </c>
+      <c r="G40">
+        <v>-0.2282397776711929</v>
+      </c>
+      <c r="H40">
+        <v>0.05851299216233507</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.03155764976435697</v>
+        <v>0.02837750881293591</v>
       </c>
       <c r="C41">
-        <v>0.006356188874409727</v>
+        <v>-0.01657366274456724</v>
       </c>
       <c r="D41">
-        <v>-0.09276607251779834</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.06305212433588003</v>
+      </c>
+      <c r="E41">
+        <v>-0.01635178129697216</v>
+      </c>
+      <c r="F41">
+        <v>-0.005381761236785904</v>
+      </c>
+      <c r="G41">
+        <v>-0.03885884514767476</v>
+      </c>
+      <c r="H41">
+        <v>-0.03034670998859955</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.02316472329229079</v>
+        <v>0.01898355176056941</v>
       </c>
       <c r="C43">
-        <v>0.01343990563725105</v>
+        <v>-0.02058248839246511</v>
       </c>
       <c r="D43">
-        <v>-0.1140947649829055</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.0812868336385818</v>
+      </c>
+      <c r="E43">
+        <v>-0.003609783532313473</v>
+      </c>
+      <c r="F43">
+        <v>-0.007241062621638767</v>
+      </c>
+      <c r="G43">
+        <v>-0.05076829510718371</v>
+      </c>
+      <c r="H43">
+        <v>-0.05606930893734537</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.009383539754742777</v>
+        <v>0.009722063750519783</v>
       </c>
       <c r="C44">
-        <v>0.04354561376888463</v>
+        <v>-0.04457536197259492</v>
       </c>
       <c r="D44">
-        <v>-0.1032418162524723</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.114314383121591</v>
+      </c>
+      <c r="E44">
+        <v>-0.008728388441561241</v>
+      </c>
+      <c r="F44">
+        <v>-0.02285074595625726</v>
+      </c>
+      <c r="G44">
+        <v>-0.04743680869555326</v>
+      </c>
+      <c r="H44">
+        <v>-0.03466719023619226</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01368312918137784</v>
+        <v>0.008471711450740899</v>
       </c>
       <c r="C46">
-        <v>0.02608435400081869</v>
+        <v>-0.03368229750958484</v>
       </c>
       <c r="D46">
-        <v>-0.1127825645431787</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.1004507383099283</v>
+      </c>
+      <c r="E46">
+        <v>0.01152633491312566</v>
+      </c>
+      <c r="F46">
+        <v>-0.02473283729013201</v>
+      </c>
+      <c r="G46">
+        <v>-0.07026760631107337</v>
+      </c>
+      <c r="H46">
+        <v>-0.07986913573647607</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.0905927032097926</v>
+        <v>0.06552192736283166</v>
       </c>
       <c r="C47">
-        <v>0.08940606337839201</v>
+        <v>-0.1059252106268366</v>
       </c>
       <c r="D47">
-        <v>-0.04638833182028973</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.03001776147765455</v>
+      </c>
+      <c r="E47">
+        <v>-0.01601418118436956</v>
+      </c>
+      <c r="F47">
+        <v>-0.006015091754076441</v>
+      </c>
+      <c r="G47">
+        <v>0.03666932782496318</v>
+      </c>
+      <c r="H47">
+        <v>-0.02090628759314945</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01181803104365808</v>
+        <v>0.01107164596925442</v>
       </c>
       <c r="C48">
-        <v>0.02142824165204501</v>
+        <v>-0.02770719195744851</v>
       </c>
       <c r="D48">
-        <v>-0.1023096045823463</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.09277218772232992</v>
+      </c>
+      <c r="E48">
+        <v>-0.0193757029781608</v>
+      </c>
+      <c r="F48">
+        <v>-0.02927217636613233</v>
+      </c>
+      <c r="G48">
+        <v>-0.04826670406300475</v>
+      </c>
+      <c r="H48">
+        <v>-0.06345601895085355</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.04949466180991138</v>
+        <v>0.03398645162678597</v>
       </c>
       <c r="C50">
-        <v>0.06200387718578601</v>
+        <v>-0.07230809224597695</v>
       </c>
       <c r="D50">
-        <v>-0.07574449836018636</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.06021899644379682</v>
+      </c>
+      <c r="E50">
+        <v>-0.0007123606247627766</v>
+      </c>
+      <c r="F50">
+        <v>-0.01190726709559677</v>
+      </c>
+      <c r="G50">
+        <v>-0.02714016512597379</v>
+      </c>
+      <c r="H50">
+        <v>-0.002496158502526325</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.007417815997557407</v>
+        <v>0.006321232741217295</v>
       </c>
       <c r="C51">
-        <v>0.01110447362412361</v>
+        <v>-0.01815746128716119</v>
       </c>
       <c r="D51">
-        <v>-0.07762553508979149</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.08385540248512581</v>
+      </c>
+      <c r="E51">
+        <v>0.0184449592042885</v>
+      </c>
+      <c r="F51">
+        <v>-0.03670147566521649</v>
+      </c>
+      <c r="G51">
+        <v>-0.07176630982008883</v>
+      </c>
+      <c r="H51">
+        <v>-0.02242734665871008</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.105082905284203</v>
+        <v>0.08420096472741317</v>
       </c>
       <c r="C53">
-        <v>0.1095103685996754</v>
+        <v>-0.1304784917078567</v>
       </c>
       <c r="D53">
-        <v>-0.009492242150723423</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.006254511639912383</v>
+      </c>
+      <c r="E53">
+        <v>-0.06008170206367133</v>
+      </c>
+      <c r="F53">
+        <v>-0.07897217447603073</v>
+      </c>
+      <c r="G53">
+        <v>-0.01607950885879219</v>
+      </c>
+      <c r="H53">
+        <v>0.01670029103100733</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.01804003847897013</v>
+        <v>0.01472731097284027</v>
       </c>
       <c r="C54">
-        <v>0.02710335481293815</v>
+        <v>-0.03537233911726843</v>
       </c>
       <c r="D54">
-        <v>-0.1239635386382655</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.1007199059398104</v>
+      </c>
+      <c r="E54">
+        <v>-0.001559834858873627</v>
+      </c>
+      <c r="F54">
+        <v>-0.007215450885593625</v>
+      </c>
+      <c r="G54">
+        <v>-0.07788399096013625</v>
+      </c>
+      <c r="H54">
+        <v>-0.0430418936090702</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09693141541073041</v>
+        <v>0.07484636902835901</v>
       </c>
       <c r="C55">
-        <v>0.08461650460693225</v>
+        <v>-0.1048675607149441</v>
       </c>
       <c r="D55">
-        <v>0.008273348594857979</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.01296097061793814</v>
+      </c>
+      <c r="E55">
+        <v>-0.01915959493701143</v>
+      </c>
+      <c r="F55">
+        <v>-0.04468723843093095</v>
+      </c>
+      <c r="G55">
+        <v>-0.02002450385476065</v>
+      </c>
+      <c r="H55">
+        <v>0.04195958918642412</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1336605918854984</v>
+        <v>0.1029991235526997</v>
       </c>
       <c r="C56">
-        <v>0.1164319179670721</v>
+        <v>-0.1523306202740778</v>
       </c>
       <c r="D56">
-        <v>0.01110641787856059</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01575282729227991</v>
+      </c>
+      <c r="E56">
+        <v>-0.04740506175743635</v>
+      </c>
+      <c r="F56">
+        <v>-0.04000433934329005</v>
+      </c>
+      <c r="G56">
+        <v>-0.01618594929276597</v>
+      </c>
+      <c r="H56">
+        <v>0.06656653134454632</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.009926615039171263</v>
+        <v>-0.00137351892292159</v>
       </c>
       <c r="C58">
-        <v>0.03884758255387682</v>
+        <v>-0.05195411292846597</v>
       </c>
       <c r="D58">
-        <v>-0.2226031147728227</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.2841797384230877</v>
+      </c>
+      <c r="E58">
+        <v>-0.04462134661525623</v>
+      </c>
+      <c r="F58">
+        <v>-0.07810411082700731</v>
+      </c>
+      <c r="G58">
+        <v>-0.03390202949979571</v>
+      </c>
+      <c r="H58">
+        <v>0.163829735961093</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1512105344704229</v>
+        <v>0.2046725825663365</v>
       </c>
       <c r="C59">
-        <v>-0.1682461286642872</v>
+        <v>0.1341211501647017</v>
       </c>
       <c r="D59">
-        <v>-0.05269301545613431</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.06636306555586312</v>
+      </c>
+      <c r="E59">
+        <v>-0.04161835432331802</v>
+      </c>
+      <c r="F59">
+        <v>-0.005709479389912424</v>
+      </c>
+      <c r="G59">
+        <v>0.01225655947123349</v>
+      </c>
+      <c r="H59">
+        <v>0.01783072185138643</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.235472459206305</v>
+        <v>0.2052378684517708</v>
       </c>
       <c r="C60">
-        <v>0.07972599955480338</v>
+        <v>-0.1370586860777325</v>
       </c>
       <c r="D60">
-        <v>-0.1217275278122574</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.06913479597921705</v>
+      </c>
+      <c r="E60">
+        <v>0.3044172613954726</v>
+      </c>
+      <c r="F60">
+        <v>0.1418441488538405</v>
+      </c>
+      <c r="G60">
+        <v>0.2803151070447624</v>
+      </c>
+      <c r="H60">
+        <v>0.05086878563017403</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04012972238740325</v>
+        <v>0.02898713140570203</v>
       </c>
       <c r="C61">
-        <v>0.05548531561428535</v>
+        <v>-0.06759321857748767</v>
       </c>
       <c r="D61">
-        <v>-0.1141224069517832</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.0917940757685244</v>
+      </c>
+      <c r="E61">
+        <v>0.02531257847851047</v>
+      </c>
+      <c r="F61">
+        <v>0.007642031223967473</v>
+      </c>
+      <c r="G61">
+        <v>-0.03331102751184192</v>
+      </c>
+      <c r="H61">
+        <v>-0.07995196268142736</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01383592197846156</v>
+        <v>0.0101039504130146</v>
       </c>
       <c r="C63">
-        <v>0.02603355372946224</v>
+        <v>-0.03469263982368894</v>
       </c>
       <c r="D63">
-        <v>-0.0943000353951273</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.07788937673398909</v>
+      </c>
+      <c r="E63">
+        <v>0.01792866741791788</v>
+      </c>
+      <c r="F63">
+        <v>-0.02205795453598084</v>
+      </c>
+      <c r="G63">
+        <v>-0.03993231857678196</v>
+      </c>
+      <c r="H63">
+        <v>-0.04224097415285395</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05407592193247656</v>
+        <v>0.03643910456583058</v>
       </c>
       <c r="C64">
-        <v>0.07207813723611628</v>
+        <v>-0.08372114058983453</v>
       </c>
       <c r="D64">
-        <v>-0.05323001908697755</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04977814314642011</v>
+      </c>
+      <c r="E64">
+        <v>0.007246360985439505</v>
+      </c>
+      <c r="F64">
+        <v>-0.0523893024677741</v>
+      </c>
+      <c r="G64">
+        <v>-0.01281761479275427</v>
+      </c>
+      <c r="H64">
+        <v>-0.1088196245464412</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.03001783386651111</v>
+        <v>0.02539006183855485</v>
       </c>
       <c r="C65">
-        <v>0.02242792764371051</v>
+        <v>-0.03612566201723393</v>
       </c>
       <c r="D65">
-        <v>-0.1228466115784908</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1088586335212845</v>
+      </c>
+      <c r="E65">
+        <v>0.03098891044527972</v>
+      </c>
+      <c r="F65">
+        <v>-0.02157278524494944</v>
+      </c>
+      <c r="G65">
+        <v>-0.02176423918092664</v>
+      </c>
+      <c r="H65">
+        <v>-0.002706754185504338</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03909092234250965</v>
+        <v>0.02742393233653198</v>
       </c>
       <c r="C66">
-        <v>0.06832034421205099</v>
+        <v>-0.0872628307083964</v>
       </c>
       <c r="D66">
-        <v>-0.1283744841524909</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.135499374471339</v>
+      </c>
+      <c r="E66">
+        <v>0.03112570477264043</v>
+      </c>
+      <c r="F66">
+        <v>0.01536843754088432</v>
+      </c>
+      <c r="G66">
+        <v>-0.02939537875409116</v>
+      </c>
+      <c r="H66">
+        <v>-0.04651653341631644</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.03975089501254538</v>
+        <v>0.03789362196222069</v>
       </c>
       <c r="C67">
-        <v>0.02280953070017007</v>
+        <v>-0.0303808935063637</v>
       </c>
       <c r="D67">
-        <v>-0.05044171049222723</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03612369881573106</v>
+      </c>
+      <c r="E67">
+        <v>-8.949729180125592e-05</v>
+      </c>
+      <c r="F67">
+        <v>0.03498342399661255</v>
+      </c>
+      <c r="G67">
+        <v>-0.03715942096227611</v>
+      </c>
+      <c r="H67">
+        <v>-0.05424510945178456</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1858514641993062</v>
+        <v>0.2362929354146815</v>
       </c>
       <c r="C68">
-        <v>-0.198268374949999</v>
+        <v>0.1516063159490731</v>
       </c>
       <c r="D68">
-        <v>-0.02225893731260578</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.02722400422448675</v>
+      </c>
+      <c r="E68">
+        <v>-0.009399341871981718</v>
+      </c>
+      <c r="F68">
+        <v>-0.03261071763428702</v>
+      </c>
+      <c r="G68">
+        <v>-0.02469941258344481</v>
+      </c>
+      <c r="H68">
+        <v>0.06555416190958019</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.08272312467490672</v>
+        <v>0.05728736741161396</v>
       </c>
       <c r="C69">
-        <v>0.1038879841077732</v>
+        <v>-0.1114932647354377</v>
       </c>
       <c r="D69">
-        <v>-0.07322567146602826</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.04010812169682931</v>
+      </c>
+      <c r="E69">
+        <v>0.008335650122463388</v>
+      </c>
+      <c r="F69">
+        <v>0.001724834527790774</v>
+      </c>
+      <c r="G69">
+        <v>0.01677204525363576</v>
+      </c>
+      <c r="H69">
+        <v>-0.0260498138674577</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1744887056329461</v>
+        <v>0.2250018009344698</v>
       </c>
       <c r="C71">
-        <v>-0.2058589826706733</v>
+        <v>0.1607953861466353</v>
       </c>
       <c r="D71">
-        <v>-0.02905089284435498</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.03105663200697981</v>
+      </c>
+      <c r="E71">
+        <v>-0.02005859894877091</v>
+      </c>
+      <c r="F71">
+        <v>-0.04531695865096281</v>
+      </c>
+      <c r="G71">
+        <v>-0.04401477149126409</v>
+      </c>
+      <c r="H71">
+        <v>0.04459988951115916</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1100759369447191</v>
+        <v>0.08775575196129821</v>
       </c>
       <c r="C72">
-        <v>0.06479484825564961</v>
+        <v>-0.1001500577074262</v>
       </c>
       <c r="D72">
-        <v>-0.08073113285202864</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.07441060109414575</v>
+      </c>
+      <c r="E72">
+        <v>0.07270434088059598</v>
+      </c>
+      <c r="F72">
+        <v>-0.01721577911684146</v>
+      </c>
+      <c r="G72">
+        <v>-0.02244974558717285</v>
+      </c>
+      <c r="H72">
+        <v>-0.03882266235349952</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2055985907834197</v>
+        <v>0.1799836494481225</v>
       </c>
       <c r="C73">
-        <v>0.03383343191672391</v>
+        <v>-0.1017384140392222</v>
       </c>
       <c r="D73">
-        <v>-0.1635913116454232</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.06433731788325629</v>
+      </c>
+      <c r="E73">
+        <v>0.4978220833481739</v>
+      </c>
+      <c r="F73">
+        <v>0.1964712378805073</v>
+      </c>
+      <c r="G73">
+        <v>0.3610147999666338</v>
+      </c>
+      <c r="H73">
+        <v>-0.0767232686962515</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1091678218427606</v>
+        <v>0.08162448234132366</v>
       </c>
       <c r="C74">
-        <v>0.09164391096932357</v>
+        <v>-0.1169781495845777</v>
       </c>
       <c r="D74">
-        <v>0.0248404372266341</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.0307885400268639</v>
+      </c>
+      <c r="E74">
+        <v>-0.02857417095947183</v>
+      </c>
+      <c r="F74">
+        <v>-0.0669635185199101</v>
+      </c>
+      <c r="G74">
+        <v>0.01532515093948316</v>
+      </c>
+      <c r="H74">
+        <v>0.02595377849214727</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2562185530711899</v>
+        <v>0.199754738857293</v>
       </c>
       <c r="C75">
-        <v>0.160533984078469</v>
+        <v>-0.2180000222930172</v>
       </c>
       <c r="D75">
-        <v>0.1106932971274339</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1267535449548106</v>
+      </c>
+      <c r="E75">
+        <v>-0.09832602171034828</v>
+      </c>
+      <c r="F75">
+        <v>0.003355140358193065</v>
+      </c>
+      <c r="G75">
+        <v>-0.02857370635386881</v>
+      </c>
+      <c r="H75">
+        <v>0.05262184129450036</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.145895540383171</v>
+        <v>0.1090907232377891</v>
       </c>
       <c r="C76">
-        <v>0.1217358570633806</v>
+        <v>-0.1527670074650034</v>
       </c>
       <c r="D76">
-        <v>-0.001083737738069137</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01751795164124698</v>
+      </c>
+      <c r="E76">
+        <v>-0.04867716885619072</v>
+      </c>
+      <c r="F76">
+        <v>-0.03123557819206981</v>
+      </c>
+      <c r="G76">
+        <v>-0.04665233840379603</v>
+      </c>
+      <c r="H76">
+        <v>0.01430763371192777</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.042872776167992</v>
+        <v>0.04879313325274705</v>
       </c>
       <c r="C77">
-        <v>0.07676500471176201</v>
+        <v>-0.08310250120287506</v>
       </c>
       <c r="D77">
-        <v>-0.06307600639844965</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.2106284812241846</v>
+      </c>
+      <c r="E77">
+        <v>-0.6267556946434391</v>
+      </c>
+      <c r="F77">
+        <v>0.4595252220393722</v>
+      </c>
+      <c r="G77">
+        <v>0.4229703729651841</v>
+      </c>
+      <c r="H77">
+        <v>0.1546164282877915</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.04058279186814493</v>
+        <v>0.0342316690921111</v>
       </c>
       <c r="C78">
-        <v>0.06347872843660005</v>
+        <v>-0.07643262383548559</v>
       </c>
       <c r="D78">
-        <v>-0.148707544407598</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1419434343914818</v>
+      </c>
+      <c r="E78">
+        <v>0.02340601714633874</v>
+      </c>
+      <c r="F78">
+        <v>-0.02794309893527933</v>
+      </c>
+      <c r="G78">
+        <v>0.01671815837767675</v>
+      </c>
+      <c r="H78">
+        <v>-0.007453013984382873</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.06266533108154343</v>
+        <v>0.05082010703632436</v>
       </c>
       <c r="C79">
-        <v>0.1100590401085019</v>
+        <v>-0.1242274590171849</v>
       </c>
       <c r="D79">
-        <v>0.1203093311012188</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.04666446025958073</v>
+      </c>
+      <c r="E79">
+        <v>-0.1950233295285226</v>
+      </c>
+      <c r="F79">
+        <v>-0.7269807888381414</v>
+      </c>
+      <c r="G79">
+        <v>0.4931085049343774</v>
+      </c>
+      <c r="H79">
+        <v>-0.130233294978687</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.01964487106018424</v>
+        <v>0.01486706038674944</v>
       </c>
       <c r="C80">
-        <v>0.04757485532261742</v>
+        <v>-0.04791329567235079</v>
       </c>
       <c r="D80">
-        <v>-0.0292931413705491</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.02609923929682611</v>
+      </c>
+      <c r="E80">
+        <v>0.001626760107287536</v>
+      </c>
+      <c r="F80">
+        <v>-0.01723842916884951</v>
+      </c>
+      <c r="G80">
+        <v>-0.06505253832475411</v>
+      </c>
+      <c r="H80">
+        <v>0.0260102045888562</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1324477632737406</v>
+        <v>0.0953090437319971</v>
       </c>
       <c r="C81">
-        <v>0.1245468381661024</v>
+        <v>-0.1475881540446773</v>
       </c>
       <c r="D81">
-        <v>0.08313216025907695</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.08626744480432881</v>
+      </c>
+      <c r="E81">
+        <v>-0.09213191930951098</v>
+      </c>
+      <c r="F81">
+        <v>-0.05855572392036271</v>
+      </c>
+      <c r="G81">
+        <v>-0.06915790405262001</v>
+      </c>
+      <c r="H81">
+        <v>-0.006062856319033825</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.262751801949576</v>
+        <v>0.1834894372516665</v>
       </c>
       <c r="C82">
-        <v>0.2503164660840003</v>
+        <v>-0.2803272598453938</v>
       </c>
       <c r="D82">
-        <v>0.2391552580516557</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2320172777899692</v>
+      </c>
+      <c r="E82">
+        <v>-0.04402774994045832</v>
+      </c>
+      <c r="F82">
+        <v>0.06756978780326051</v>
+      </c>
+      <c r="G82">
+        <v>-0.07141341952189123</v>
+      </c>
+      <c r="H82">
+        <v>0.006916359423126845</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02449425176926637</v>
+        <v>0.01277992183442411</v>
       </c>
       <c r="C83">
-        <v>0.05875956450697337</v>
+        <v>-0.05529049732729355</v>
       </c>
       <c r="D83">
-        <v>-0.04332276515925916</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.05268454841590007</v>
+      </c>
+      <c r="E83">
+        <v>-0.0810592782286865</v>
+      </c>
+      <c r="F83">
+        <v>0.05119379643329324</v>
+      </c>
+      <c r="G83">
+        <v>-0.01528966933281566</v>
+      </c>
+      <c r="H83">
+        <v>-0.00463234950601084</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.000408762218246051</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.008973637557432317</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.02753196837635206</v>
+      </c>
+      <c r="E84">
+        <v>-0.006795094535516189</v>
+      </c>
+      <c r="F84">
+        <v>-0.01775706503761506</v>
+      </c>
+      <c r="G84">
+        <v>-0.02836511014020484</v>
+      </c>
+      <c r="H84">
+        <v>0.02033208716770592</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1671692371781409</v>
+        <v>0.1253157345111469</v>
       </c>
       <c r="C85">
-        <v>0.1286360016809433</v>
+        <v>-0.1715495653902108</v>
       </c>
       <c r="D85">
-        <v>0.06248197797660754</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.08458021500799448</v>
+      </c>
+      <c r="E85">
+        <v>-0.01376063255752218</v>
+      </c>
+      <c r="F85">
+        <v>-0.08974820068433548</v>
+      </c>
+      <c r="G85">
+        <v>-0.01091997639927134</v>
+      </c>
+      <c r="H85">
+        <v>0.01003969573612715</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01626352225516319</v>
+        <v>0.0147308254841833</v>
       </c>
       <c r="C86">
-        <v>0.03006152804495267</v>
+        <v>-0.03122423671006711</v>
       </c>
       <c r="D86">
-        <v>-0.1023504883115242</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.1111532652134583</v>
+      </c>
+      <c r="E86">
+        <v>-0.04524735172824243</v>
+      </c>
+      <c r="F86">
+        <v>0.02145641523522304</v>
+      </c>
+      <c r="G86">
+        <v>-0.01925261601663358</v>
+      </c>
+      <c r="H86">
+        <v>-0.0007149226289587728</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02786829991283317</v>
+        <v>0.02812114631600689</v>
       </c>
       <c r="C87">
-        <v>0.02569301843934194</v>
+        <v>-0.04166098264671623</v>
       </c>
       <c r="D87">
-        <v>-0.1314380582739646</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1493432342369341</v>
+      </c>
+      <c r="E87">
+        <v>-0.01990589643806568</v>
+      </c>
+      <c r="F87">
+        <v>-0.02983877701798402</v>
+      </c>
+      <c r="G87">
+        <v>-0.0544010763870162</v>
+      </c>
+      <c r="H87">
+        <v>-0.002803615800435237</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.06776326901645266</v>
+        <v>0.05285634000260296</v>
       </c>
       <c r="C88">
-        <v>0.0478628532854964</v>
+        <v>-0.06419075659825195</v>
       </c>
       <c r="D88">
-        <v>-0.06060560856216737</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02584048568403327</v>
+      </c>
+      <c r="E88">
+        <v>0.01999383983002552</v>
+      </c>
+      <c r="F88">
+        <v>-0.0305235418887778</v>
+      </c>
+      <c r="G88">
+        <v>-0.01244390881078433</v>
+      </c>
+      <c r="H88">
+        <v>-0.03951228831980984</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2802649604017418</v>
+        <v>0.3535231270787887</v>
       </c>
       <c r="C89">
-        <v>-0.3693226039877626</v>
+        <v>0.2770474812103898</v>
       </c>
       <c r="D89">
-        <v>-0.0155029202255956</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.02333168678386246</v>
+      </c>
+      <c r="E89">
+        <v>-0.04311656282429709</v>
+      </c>
+      <c r="F89">
+        <v>-0.007383192409677424</v>
+      </c>
+      <c r="G89">
+        <v>-0.0867549453587676</v>
+      </c>
+      <c r="H89">
+        <v>-0.1400898052386266</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2267414553203805</v>
+        <v>0.2798054171122815</v>
       </c>
       <c r="C90">
-        <v>-0.2716104748837799</v>
+        <v>0.1974777993864529</v>
       </c>
       <c r="D90">
-        <v>-0.03780647596602109</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.04300334468349605</v>
+      </c>
+      <c r="E90">
+        <v>-0.01697881451049325</v>
+      </c>
+      <c r="F90">
+        <v>0.01046794655658316</v>
+      </c>
+      <c r="G90">
+        <v>-0.04837579438826597</v>
+      </c>
+      <c r="H90">
+        <v>0.05488561609241887</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1707186672646052</v>
+        <v>0.1236031482914712</v>
       </c>
       <c r="C91">
-        <v>0.1711103652945132</v>
+        <v>-0.1921491661903729</v>
       </c>
       <c r="D91">
-        <v>0.1040658349961448</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1036385273196545</v>
+      </c>
+      <c r="E91">
+        <v>-0.09739821487612763</v>
+      </c>
+      <c r="F91">
+        <v>-0.08510809262437731</v>
+      </c>
+      <c r="G91">
+        <v>0.005526145810803878</v>
+      </c>
+      <c r="H91">
+        <v>0.009409623387529464</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1914513435441582</v>
+        <v>0.2683821817947674</v>
       </c>
       <c r="C92">
-        <v>-0.2679365816002489</v>
+        <v>0.2237765291621834</v>
       </c>
       <c r="D92">
-        <v>-0.02269837299775436</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03603546503972355</v>
+      </c>
+      <c r="E92">
+        <v>-0.1084700251997641</v>
+      </c>
+      <c r="F92">
+        <v>-0.0450183613896077</v>
+      </c>
+      <c r="G92">
+        <v>-0.09160058453856995</v>
+      </c>
+      <c r="H92">
+        <v>-0.02129597269791515</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.245822417218528</v>
+        <v>0.2962800626084173</v>
       </c>
       <c r="C93">
-        <v>-0.2938700658779624</v>
+        <v>0.2127905114044169</v>
       </c>
       <c r="D93">
-        <v>-0.03142891813177325</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.008510817194665031</v>
+      </c>
+      <c r="E93">
+        <v>0.03296324399394975</v>
+      </c>
+      <c r="F93">
+        <v>-0.02996734136979742</v>
+      </c>
+      <c r="G93">
+        <v>0.03322425335867076</v>
+      </c>
+      <c r="H93">
+        <v>-0.00145496537534403</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3523553896592814</v>
+        <v>0.2692396240466926</v>
       </c>
       <c r="C94">
-        <v>0.2214860976269071</v>
+        <v>-0.3072875893219112</v>
       </c>
       <c r="D94">
-        <v>0.3406842731515315</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.3534023354465121</v>
+      </c>
+      <c r="E94">
+        <v>-0.03763394609841444</v>
+      </c>
+      <c r="F94">
+        <v>0.1124611995936721</v>
+      </c>
+      <c r="G94">
+        <v>-0.2972564663490849</v>
+      </c>
+      <c r="H94">
+        <v>0.1519040721368758</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.06900801204434769</v>
+        <v>0.05838851479580235</v>
       </c>
       <c r="C95">
-        <v>0.04850850323989394</v>
+        <v>-0.07079992113897354</v>
       </c>
       <c r="D95">
-        <v>-0.09825871501316973</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.09756925454812405</v>
+      </c>
+      <c r="E95">
+        <v>-0.1878764588754696</v>
+      </c>
+      <c r="F95">
+        <v>0.2586574270823616</v>
+      </c>
+      <c r="G95">
+        <v>0.02243361914338368</v>
+      </c>
+      <c r="H95">
+        <v>-0.5310741503316194</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3187,74 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>6.675448165362637e-05</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0001647045264693621</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.0002889474899341443</v>
+      </c>
+      <c r="E97">
+        <v>0.0003401595895259413</v>
+      </c>
+      <c r="F97">
+        <v>0.0003001377794792291</v>
+      </c>
+      <c r="G97">
+        <v>-0.0002334104543462744</v>
+      </c>
+      <c r="H97">
+        <v>-0.0002219118485900191</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1720679131710365</v>
+        <v>0.1530168697338407</v>
       </c>
       <c r="C98">
-        <v>0.05622037474960836</v>
+        <v>-0.106067635666566</v>
       </c>
       <c r="D98">
-        <v>-0.09560836624867476</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.05358555645002461</v>
+      </c>
+      <c r="E98">
+        <v>0.3032246314446295</v>
+      </c>
+      <c r="F98">
+        <v>0.1105825473265038</v>
+      </c>
+      <c r="G98">
+        <v>0.2167836298296852</v>
+      </c>
+      <c r="H98">
+        <v>-0.007778034940045776</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002833481904298799</v>
+        <v>0.003351885619399247</v>
       </c>
       <c r="C101">
-        <v>0.02367460468346546</v>
+        <v>-0.0275276627649297</v>
       </c>
       <c r="D101">
-        <v>-0.1077542943158086</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.1066127176035883</v>
+      </c>
+      <c r="E101">
+        <v>0.02432684135845584</v>
+      </c>
+      <c r="F101">
+        <v>-0.03366883083116531</v>
+      </c>
+      <c r="G101">
+        <v>-0.07454176015957831</v>
+      </c>
+      <c r="H101">
+        <v>-0.07084490935634452</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1219702178640509</v>
+        <v>0.08115664512850443</v>
       </c>
       <c r="C102">
-        <v>0.1315315720585529</v>
+        <v>-0.1387158927330429</v>
       </c>
       <c r="D102">
-        <v>0.08604616692473246</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.09197795050848546</v>
+      </c>
+      <c r="E102">
+        <v>-0.03722553023382169</v>
+      </c>
+      <c r="F102">
+        <v>0.04737733994856456</v>
+      </c>
+      <c r="G102">
+        <v>-0.01114810399169294</v>
+      </c>
+      <c r="H102">
+        <v>-0.04695247441036154</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
